--- a/excel_scores/tristeza.xlsx
+++ b/excel_scores/tristeza.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Chord</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Duration</t>
         </is>
       </c>
@@ -449,7 +454,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -462,7 +472,10 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -475,7 +488,10 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -488,7 +504,10 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -501,7 +520,10 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -514,7 +536,10 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -527,7 +552,10 @@
       <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>16</v>
       </c>
     </row>
@@ -540,7 +568,10 @@
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>16</v>
       </c>
     </row>
@@ -553,7 +584,10 @@
       <c r="B10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -566,7 +600,10 @@
       <c r="B11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -579,7 +616,10 @@
       <c r="B12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -592,7 +632,10 @@
       <c r="B13" t="n">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>32</v>
       </c>
     </row>
@@ -605,7 +648,10 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>32</v>
       </c>
     </row>
@@ -620,7 +666,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -633,7 +684,10 @@
       <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -646,7 +700,10 @@
       <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>8</v>
       </c>
     </row>
@@ -659,7 +716,10 @@
       <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>8</v>
       </c>
     </row>
@@ -672,7 +732,10 @@
       <c r="B19" t="n">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -685,7 +748,10 @@
       <c r="B20" t="n">
         <v>5</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -698,7 +764,10 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -711,7 +780,10 @@
       <c r="B22" t="n">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -724,7 +796,10 @@
       <c r="B23" t="n">
         <v>5</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>8</v>
       </c>
     </row>
@@ -737,7 +812,10 @@
       <c r="B24" t="n">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -750,7 +828,10 @@
       <c r="B25" t="n">
         <v>5</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>12</v>
       </c>
     </row>
@@ -763,7 +844,10 @@
       <c r="B26" t="n">
         <v>5</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -776,7 +860,10 @@
       <c r="B27" t="n">
         <v>5</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>16</v>
       </c>
     </row>
@@ -789,7 +876,10 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
         <v>16</v>
       </c>
     </row>
@@ -804,7 +894,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>8</v>
       </c>
     </row>
@@ -817,7 +912,10 @@
       <c r="B30" t="n">
         <v>4</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>8</v>
       </c>
     </row>
@@ -830,7 +928,10 @@
       <c r="B31" t="n">
         <v>4</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
         <v>24</v>
       </c>
     </row>
@@ -843,7 +944,10 @@
       <c r="B32" t="n">
         <v>4</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>16</v>
       </c>
     </row>
@@ -856,7 +960,10 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
     </row>
@@ -871,7 +978,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -884,7 +996,10 @@
       <c r="B35" t="n">
         <v>4</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>8</v>
       </c>
     </row>
@@ -897,7 +1012,10 @@
       <c r="B36" t="n">
         <v>4</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
         <v>8</v>
       </c>
     </row>
@@ -910,7 +1028,10 @@
       <c r="B37" t="n">
         <v>4</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
         <v>12</v>
       </c>
     </row>
@@ -923,7 +1044,10 @@
       <c r="B38" t="n">
         <v>4</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -936,7 +1060,10 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -949,7 +1076,10 @@
       <c r="B40" t="n">
         <v>4</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -962,7 +1092,10 @@
       <c r="B41" t="n">
         <v>4</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -975,7 +1108,10 @@
       <c r="B42" t="n">
         <v>4</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
         <v>24</v>
       </c>
     </row>
@@ -988,7 +1124,10 @@
       <c r="B43" t="n">
         <v>5</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1001,7 +1140,10 @@
       <c r="B44" t="n">
         <v>5</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1016,7 +1158,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1029,7 +1176,10 @@
       <c r="B46" t="n">
         <v>4</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,7 +1192,10 @@
       <c r="B47" t="n">
         <v>4</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1055,7 +1208,10 @@
       <c r="B48" t="n">
         <v>4</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1068,7 +1224,10 @@
       <c r="B49" t="n">
         <v>4</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1081,7 +1240,10 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1094,7 +1256,10 @@
       <c r="B51" t="n">
         <v>4</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1107,7 +1272,10 @@
       <c r="B52" t="n">
         <v>4</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1120,7 +1288,10 @@
       <c r="B53" t="n">
         <v>4</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1133,7 +1304,10 @@
       <c r="B54" t="n">
         <v>5</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1146,7 +1320,10 @@
       <c r="B55" t="n">
         <v>5</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1161,7 +1338,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1174,7 +1356,10 @@
       <c r="B57" t="n">
         <v>5</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1187,7 +1372,10 @@
       <c r="B58" t="n">
         <v>5</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1200,7 +1388,10 @@
       <c r="B59" t="n">
         <v>5</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1213,7 +1404,10 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1226,7 +1420,10 @@
       <c r="B61" t="n">
         <v>4</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1239,7 +1436,10 @@
       <c r="B62" t="n">
         <v>4</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1252,7 +1452,10 @@
       <c r="B63" t="n">
         <v>4</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1265,7 +1468,10 @@
       <c r="B64" t="n">
         <v>4</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1278,7 +1484,10 @@
       <c r="B65" t="n">
         <v>4</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1293,7 +1502,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1306,7 +1520,10 @@
       <c r="B67" t="n">
         <v>5</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1319,7 +1536,10 @@
       <c r="B68" t="n">
         <v>5</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1332,7 +1552,10 @@
       <c r="B69" t="n">
         <v>5</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1345,7 +1568,10 @@
       <c r="B70" t="n">
         <v>5</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1358,7 +1584,10 @@
       <c r="B71" t="n">
         <v>5</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1371,7 +1600,10 @@
       <c r="B72" t="n">
         <v>5</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1384,7 +1616,10 @@
       <c r="B73" t="n">
         <v>5</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1397,7 +1632,10 @@
       <c r="B74" t="n">
         <v>5</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1410,7 +1648,10 @@
       <c r="B75" t="n">
         <v>5</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1423,7 +1664,10 @@
       <c r="B76" t="n">
         <v>5</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1436,7 +1680,10 @@
       <c r="B77" t="n">
         <v>5</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1449,7 +1696,10 @@
       <c r="B78" t="n">
         <v>5</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1462,7 +1712,10 @@
       <c r="B79" t="n">
         <v>4</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1475,7 +1728,10 @@
       <c r="B80" t="n">
         <v>5</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1488,7 +1744,10 @@
       <c r="B81" t="n">
         <v>5</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1501,7 +1760,10 @@
       <c r="B82" t="n">
         <v>5</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1516,7 +1778,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1529,7 +1796,10 @@
       <c r="B84" t="n">
         <v>5</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1542,7 +1812,10 @@
       <c r="B85" t="n">
         <v>5</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1555,7 +1828,10 @@
       <c r="B86" t="n">
         <v>5</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1568,7 +1844,10 @@
       <c r="B87" t="n">
         <v>5</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1581,7 +1860,10 @@
       <c r="B88" t="n">
         <v>5</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1594,7 +1876,10 @@
       <c r="B89" t="n">
         <v>5</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1607,7 +1892,10 @@
       <c r="B90" t="n">
         <v>5</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1620,7 +1908,10 @@
       <c r="B91" t="n">
         <v>5</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1633,7 +1924,10 @@
       <c r="B92" t="n">
         <v>4</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1646,7 +1940,10 @@
       <c r="B93" t="n">
         <v>4</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1659,7 +1956,10 @@
       <c r="B94" t="n">
         <v>4</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1674,7 +1974,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1687,7 +1992,10 @@
       <c r="B96" t="n">
         <v>4</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1700,7 +2008,10 @@
       <c r="B97" t="n">
         <v>5</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1713,7 +2024,10 @@
       <c r="B98" t="n">
         <v>4</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1726,7 +2040,10 @@
       <c r="B99" t="n">
         <v>5</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1739,7 +2056,10 @@
       <c r="B100" t="n">
         <v>4</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1752,7 +2072,10 @@
       <c r="B101" t="n">
         <v>5</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1765,7 +2088,10 @@
       <c r="B102" t="n">
         <v>5</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1778,7 +2104,10 @@
       <c r="B103" t="n">
         <v>5</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1791,7 +2120,10 @@
       <c r="B104" t="n">
         <v>4</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1804,7 +2136,10 @@
       <c r="B105" t="n">
         <v>4</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1817,7 +2152,10 @@
       <c r="B106" t="n">
         <v>4</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1830,7 +2168,10 @@
       <c r="B107" t="n">
         <v>4</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1843,7 +2184,10 @@
       <c r="B108" t="n">
         <v>4</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1856,7 +2200,10 @@
       <c r="B109" t="n">
         <v>4</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1869,7 +2216,10 @@
       <c r="B110" t="n">
         <v>4</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1882,7 +2232,10 @@
       <c r="B111" t="n">
         <v>4</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1895,7 +2248,10 @@
       <c r="B112" t="n">
         <v>4</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1908,7 +2264,10 @@
       <c r="B113" t="n">
         <v>5</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1921,7 +2280,10 @@
       <c r="B114" t="n">
         <v>5</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1934,7 +2296,10 @@
       <c r="B115" t="n">
         <v>4</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1947,7 +2312,10 @@
       <c r="B116" t="n">
         <v>5</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1960,7 +2328,10 @@
       <c r="B117" t="n">
         <v>4</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1973,7 +2344,10 @@
       <c r="B118" t="n">
         <v>4</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1986,7 +2360,10 @@
       <c r="B119" t="n">
         <v>4</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1999,7 +2376,10 @@
       <c r="B120" t="n">
         <v>4</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2012,7 +2392,10 @@
       <c r="B121" t="n">
         <v>4</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2027,7 +2410,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2040,7 +2428,10 @@
       <c r="B123" t="n">
         <v>4</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2053,7 +2444,10 @@
       <c r="B124" t="n">
         <v>4</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2066,7 +2460,10 @@
       <c r="B125" t="n">
         <v>5</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2079,7 +2476,10 @@
       <c r="B126" t="n">
         <v>5</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2092,7 +2492,10 @@
       <c r="B127" t="n">
         <v>5</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2105,7 +2508,10 @@
       <c r="B128" t="n">
         <v>5</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" t="b">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2118,7 +2524,10 @@
       <c r="B129" t="n">
         <v>5</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2133,7 +2542,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2146,7 +2560,10 @@
       <c r="B131" t="n">
         <v>5</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2159,7 +2576,10 @@
       <c r="B132" t="n">
         <v>5</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2172,7 +2592,10 @@
       <c r="B133" t="n">
         <v>5</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2185,7 +2608,10 @@
       <c r="B134" t="n">
         <v>5</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" t="b">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2198,7 +2624,10 @@
       <c r="B135" t="n">
         <v>5</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" t="b">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2211,7 +2640,10 @@
       <c r="B136" t="n">
         <v>5</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2224,7 +2656,10 @@
       <c r="B137" t="n">
         <v>5</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2237,7 +2672,10 @@
       <c r="B138" t="n">
         <v>5</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2250,7 +2688,10 @@
       <c r="B139" t="n">
         <v>4</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2263,7 +2704,10 @@
       <c r="B140" t="n">
         <v>4</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2278,7 +2722,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2291,7 +2740,10 @@
       <c r="B142" t="n">
         <v>4</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" t="b">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2304,7 +2756,10 @@
       <c r="B143" t="n">
         <v>5</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" t="b">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2317,7 +2772,10 @@
       <c r="B144" t="n">
         <v>4</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2330,7 +2788,10 @@
       <c r="B145" t="n">
         <v>5</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" t="b">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2343,7 +2804,10 @@
       <c r="B146" t="n">
         <v>5</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" t="b">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2356,7 +2820,10 @@
       <c r="B147" t="n">
         <v>5</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2369,7 +2836,10 @@
       <c r="B148" t="n">
         <v>4</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" t="b">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2382,7 +2852,10 @@
       <c r="B149" t="n">
         <v>4</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" t="b">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2395,7 +2868,10 @@
       <c r="B150" t="n">
         <v>4</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2408,7 +2884,10 @@
       <c r="B151" t="n">
         <v>4</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" t="b">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2421,7 +2900,10 @@
       <c r="B152" t="n">
         <v>5</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" t="b">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2434,7 +2916,10 @@
       <c r="B153" t="n">
         <v>5</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2447,7 +2932,10 @@
       <c r="B154" t="n">
         <v>4</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2460,7 +2948,10 @@
       <c r="B155" t="n">
         <v>5</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2473,7 +2964,10 @@
       <c r="B156" t="n">
         <v>4</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" t="b">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2486,7 +2980,10 @@
       <c r="B157" t="n">
         <v>4</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2499,7 +2996,10 @@
       <c r="B158" t="n">
         <v>4</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" t="b">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2512,7 +3012,10 @@
       <c r="B159" t="n">
         <v>4</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" t="b">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2525,7 +3028,10 @@
       <c r="B160" t="n">
         <v>4</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2538,7 +3044,10 @@
       <c r="B161" t="n">
         <v>4</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" t="b">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2551,7 +3060,10 @@
       <c r="B162" t="n">
         <v>4</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" t="b">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2564,7 +3076,10 @@
       <c r="B163" t="n">
         <v>5</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" t="b">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2577,7 +3092,10 @@
       <c r="B164" t="n">
         <v>5</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" t="b">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2590,7 +3108,10 @@
       <c r="B165" t="n">
         <v>4</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2603,7 +3124,10 @@
       <c r="B166" t="n">
         <v>4</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166" t="b">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2618,7 +3142,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2631,7 +3160,10 @@
       <c r="B168" t="n">
         <v>4</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
         <v>8</v>
       </c>
     </row>
